--- a/data/trans_dic/P10_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P10_2_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,0</t>
+          <t>4,35; 10,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 13,08</t>
+          <t>5,97; 12,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,16</t>
+          <t>0,79; 4,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,85</t>
+          <t>5,16; 11,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,43; 24,54</t>
+          <t>15,08; 25,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,05</t>
+          <t>1,76; 4,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,23</t>
+          <t>5,68; 10,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 17,41</t>
+          <t>11,45; 17,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,75</t>
+          <t>1,6; 3,92</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,95</t>
+          <t>5,23; 10,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 10,74</t>
+          <t>5,41; 10,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,33</t>
+          <t>1,46; 4,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,19</t>
+          <t>5,02; 9,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,87; 17,98</t>
+          <t>11,73; 17,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 18,12</t>
+          <t>11,87; 18,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 10,58</t>
+          <t>5,62; 10,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 13,5</t>
+          <t>8,86; 13,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,11; 13,04</t>
+          <t>9,13; 12,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 13,63</t>
+          <t>9,55; 13,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,0</t>
+          <t>4,26; 6,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,21</t>
+          <t>7,45; 10,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,53</t>
+          <t>0,3; 3,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,6</t>
+          <t>3,28; 8,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,29</t>
+          <t>0,88; 4,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,71</t>
+          <t>3,61; 8,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,84</t>
+          <t>1,84; 6,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,8; 14,87</t>
+          <t>7,95; 14,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,21</t>
+          <t>3,03; 7,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,61</t>
+          <t>4,7; 8,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,85</t>
+          <t>1,29; 3,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,71</t>
+          <t>6,38; 10,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,53</t>
+          <t>2,27; 5,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,9</t>
+          <t>4,8; 7,96</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,57</t>
+          <t>0,71; 3,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,57</t>
+          <t>5,68; 9,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,66</t>
+          <t>6,12; 12,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,46</t>
+          <t>3,64; 9,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,99</t>
+          <t>4,63; 10,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 23,62</t>
+          <t>17,53; 23,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 23,29</t>
+          <t>14,76; 23,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 14,34</t>
+          <t>7,95; 14,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,18</t>
+          <t>2,99; 6,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 16,0</t>
+          <t>12,21; 15,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 16,46</t>
+          <t>11,54; 16,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,39</t>
+          <t>6,77; 11,21</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,54</t>
+          <t>3,52; 10,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 8,01</t>
+          <t>1,96; 7,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,34</t>
+          <t>1,87; 7,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,49</t>
+          <t>1,5; 5,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 9,89</t>
+          <t>3,14; 9,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 23,15</t>
+          <t>12,41; 23,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 11,69</t>
+          <t>4,67; 12,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,62; 12,0</t>
+          <t>6,52; 11,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,72</t>
+          <t>4,09; 8,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 14,4</t>
+          <t>8,18; 14,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,63</t>
+          <t>3,91; 8,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,17</t>
+          <t>4,78; 8,22</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,37</t>
+          <t>0,32; 2,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,78</t>
+          <t>4,54; 10,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,11</t>
+          <t>4,91; 11,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,14</t>
+          <t>3,54; 7,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,78</t>
+          <t>1,94; 6,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,17</t>
+          <t>7,28; 14,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 17,07</t>
+          <t>8,53; 17,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,15; 9,56</t>
+          <t>5,17; 10,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,21</t>
+          <t>1,49; 4,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,6; 11,41</t>
+          <t>6,7; 11,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,85; 13,37</t>
+          <t>7,93; 13,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,91</t>
+          <t>4,87; 7,9</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,16</t>
+          <t>3,63; 7,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,29</t>
+          <t>2,89; 6,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,36</t>
+          <t>4,15; 8,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,1</t>
+          <t>6,28; 10,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 11,81</t>
+          <t>7,09; 11,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,94</t>
+          <t>5,58; 9,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,47</t>
+          <t>9,48; 14,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,7</t>
+          <t>7,25; 14,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,06; 8,93</t>
+          <t>5,95; 8,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,45</t>
+          <t>4,64; 7,42</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 10,76</t>
+          <t>7,55; 10,78</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,98</t>
+          <t>7,53; 12,06</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,75</t>
+          <t>5,77; 9,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,91</t>
+          <t>6,57; 10,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,71</t>
+          <t>2,87; 5,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,33</t>
+          <t>3,92; 7,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,4</t>
+          <t>7,06; 11,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,77; 17,76</t>
+          <t>12,76; 17,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,99</t>
+          <t>5,06; 8,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,54; 18,62</t>
+          <t>13,41; 18,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,02; 9,89</t>
+          <t>7,09; 10,06</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,31; 13,79</t>
+          <t>10,25; 13,68</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,76</t>
+          <t>4,49; 6,81</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,99; 12,18</t>
+          <t>9,19; 12,46</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,07</t>
+          <t>4,5; 5,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,73</t>
+          <t>5,86; 7,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,21</t>
+          <t>4,62; 6,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,8</t>
+          <t>5,07; 6,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,59; 9,47</t>
+          <t>7,61; 9,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,89; 15,13</t>
+          <t>12,77; 15,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,53; 11,84</t>
+          <t>9,62; 11,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,59; 11,84</t>
+          <t>9,6; 11,85</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,57</t>
+          <t>6,28; 7,53</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,18</t>
+          <t>9,71; 11,2</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,42; 8,75</t>
+          <t>7,45; 8,72</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,16</t>
+          <t>7,82; 9,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P10_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P10_2_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,89</t>
+          <t>4,86; 11,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 12,97</t>
+          <t>6,15; 13,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,99</t>
+          <t>5,1; 12,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,08; 25,05</t>
+          <t>14,79; 24,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,27</t>
+          <t>5,49; 10,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,45; 17,64</t>
+          <t>11,71; 17,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,29</t>
+          <t>5,22; 9,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,66</t>
+          <t>5,43; 10,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,3</t>
+          <t>1,45; 4,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,73; 17,99</t>
+          <t>11,95; 18,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,87; 18,19</t>
+          <t>11,74; 17,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,51</t>
+          <t>5,83; 10,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 12,97</t>
+          <t>9,03; 13,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 13,72</t>
+          <t>9,39; 13,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,99</t>
+          <t>4,07; 7,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,71</t>
+          <t>0,29; 3,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,38</t>
+          <t>3,33; 8,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,33</t>
+          <t>0,85; 4,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 6,24</t>
+          <t>1,7; 5,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,95; 14,62</t>
+          <t>7,71; 14,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,94</t>
+          <t>2,93; 8,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,62</t>
+          <t>1,25; 3,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,86</t>
+          <t>6,39; 10,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,39</t>
+          <t>2,19; 5,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,52</t>
+          <t>0,68; 3,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,94</t>
+          <t>5,54; 9,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 12,13</t>
+          <t>6,25; 11,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,12</t>
+          <t>4,72; 9,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,53; 23,58</t>
+          <t>17,21; 23,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,76; 23,45</t>
+          <t>14,74; 22,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,1</t>
+          <t>2,98; 6,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,21; 15,89</t>
+          <t>12,16; 15,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,54; 16,83</t>
+          <t>11,24; 16,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 10,2</t>
+          <t>3,51; 10,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,98</t>
+          <t>1,99; 7,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,51</t>
+          <t>1,9; 7,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,89</t>
+          <t>3,36; 9,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,41; 23,19</t>
+          <t>12,53; 22,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 12,36</t>
+          <t>4,71; 12,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 8,45</t>
+          <t>3,99; 8,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,18; 14,29</t>
+          <t>8,19; 14,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,56</t>
+          <t>4,19; 8,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,99</t>
+          <t>0,35; 3,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,81</t>
+          <t>4,49; 10,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 11,93</t>
+          <t>5,03; 11,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,66</t>
+          <t>1,85; 6,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,28; 14,4</t>
+          <t>7,42; 14,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,53; 17,4</t>
+          <t>8,36; 17,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,25</t>
+          <t>1,46; 4,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,7; 11,68</t>
+          <t>6,56; 11,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,93; 13,58</t>
+          <t>7,89; 13,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,33</t>
+          <t>3,48; 7,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,04</t>
+          <t>2,74; 5,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,37</t>
+          <t>4,16; 8,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,09; 11,84</t>
+          <t>7,37; 12,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,95</t>
+          <t>5,7; 9,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,48; 14,53</t>
+          <t>9,56; 14,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,95; 8,87</t>
+          <t>5,87; 8,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,42</t>
+          <t>4,65; 7,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,55; 10,78</t>
+          <t>7,49; 10,68</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,83</t>
+          <t>5,86; 9,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,89</t>
+          <t>6,57; 11,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,8</t>
+          <t>2,86; 5,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,06; 11,28</t>
+          <t>7,33; 11,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,76; 17,72</t>
+          <t>12,88; 17,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,8</t>
+          <t>5,07; 8,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,06</t>
+          <t>7,07; 10,08</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,25; 13,68</t>
+          <t>10,27; 13,57</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,81</t>
+          <t>4,39; 6,81</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,5; 5,98</t>
+          <t>4,49; 6,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,7</t>
+          <t>5,91; 7,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,18</t>
+          <t>4,6; 6,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,61; 9,53</t>
+          <t>7,55; 9,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,16</t>
+          <t>12,9; 15,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,62; 11,78</t>
+          <t>9,56; 11,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,53</t>
+          <t>6,28; 7,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,2</t>
+          <t>9,68; 11,23</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,45; 8,72</t>
+          <t>7,41; 8,84</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
